--- a/curso-completo/excel_365_do_zero_ao_avancado/5.basico_formatacao_de_tabela_e_analise_de_dados/105.estrutura_de_topicos_subtotal/81+-+Estrutura+de+Tópicos+Subtotal.xlsx
+++ b/curso-completo/excel_365_do_zero_ao_avancado/5.basico_formatacao_de_tabela_e_analise_de_dados/105.estrutura_de_topicos_subtotal/81+-+Estrutura+de+Tópicos+Subtotal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aula\Desktop\Curso de Excel\Capítulo 04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel-nivel-especialista\curso-completo\excel_365_do_zero_ao_avancado\5.basico_formatacao_de_tabela_e_analise_de_dados\105.estrutura_de_topicos_subtotal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9992433-1AAB-4DF8-829B-5059F841F56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED99EA8C-282C-4276-B7B1-B0657C59AA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{851E89D6-2654-4F34-8E0C-E870017DE456}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{851E89D6-2654-4F34-8E0C-E870017DE456}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercício 01" sheetId="24" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Informações" sheetId="2" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Exercício 01'!$B$4:$F$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Exercício 01'!$B$4:$F$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Exercício 02'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Exercício 03'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Exercício 04'!#REF!</definedName>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="121">
   <si>
     <t>Material Curso de Excel do Básico ao Expert 2022</t>
   </si>
@@ -287,6 +287,135 @@
   </si>
   <si>
     <t>Excel Básico Capítulo 04 Aula 81</t>
+  </si>
+  <si>
+    <t>Citroën Total</t>
+  </si>
+  <si>
+    <t>Fiat Total</t>
+  </si>
+  <si>
+    <t>Ford Total</t>
+  </si>
+  <si>
+    <t>GM Total</t>
+  </si>
+  <si>
+    <t>Honda Total</t>
+  </si>
+  <si>
+    <t>Renault Total</t>
+  </si>
+  <si>
+    <t>Toyota Total</t>
+  </si>
+  <si>
+    <t>VW Total</t>
+  </si>
+  <si>
+    <t>Total Geral</t>
+  </si>
+  <si>
+    <t>Campinas Total</t>
+  </si>
+  <si>
+    <t>Indaiatuba Total</t>
+  </si>
+  <si>
+    <t>Itu Total</t>
+  </si>
+  <si>
+    <t>Salto Total</t>
+  </si>
+  <si>
+    <t>São Paulo Total</t>
+  </si>
+  <si>
+    <t>Sorocaba Total</t>
+  </si>
+  <si>
+    <t>Campinas Média</t>
+  </si>
+  <si>
+    <t>Indaiatuba Média</t>
+  </si>
+  <si>
+    <t>Itu Média</t>
+  </si>
+  <si>
+    <t>Salto Média</t>
+  </si>
+  <si>
+    <t>São Paulo Média</t>
+  </si>
+  <si>
+    <t>Sorocaba Média</t>
+  </si>
+  <si>
+    <t>Média Geral</t>
+  </si>
+  <si>
+    <t>Campinas Máx.</t>
+  </si>
+  <si>
+    <t>Indaiatuba Máx.</t>
+  </si>
+  <si>
+    <t>Itu Máx.</t>
+  </si>
+  <si>
+    <t>Salto Máx.</t>
+  </si>
+  <si>
+    <t>São Paulo Máx.</t>
+  </si>
+  <si>
+    <t>Sorocaba Máx.</t>
+  </si>
+  <si>
+    <t>Máx Geral</t>
+  </si>
+  <si>
+    <t>Campinas Mín.</t>
+  </si>
+  <si>
+    <t>Indaiatuba Mín.</t>
+  </si>
+  <si>
+    <t>Itu Mín.</t>
+  </si>
+  <si>
+    <t>Salto Mín.</t>
+  </si>
+  <si>
+    <t>São Paulo Mín.</t>
+  </si>
+  <si>
+    <t>Sorocaba Mín.</t>
+  </si>
+  <si>
+    <t>Mín Geral</t>
+  </si>
+  <si>
+    <t>Campinas Contagem</t>
+  </si>
+  <si>
+    <t>Indaiatuba Contagem</t>
+  </si>
+  <si>
+    <t>Itu Contagem</t>
+  </si>
+  <si>
+    <t>Salto Contagem</t>
+  </si>
+  <si>
+    <t>São Paulo Contagem</t>
+  </si>
+  <si>
+    <t>Sorocaba Contagem</t>
+  </si>
+  <si>
+    <t>Contagem Geral</t>
   </si>
 </sst>
 </file>
@@ -297,7 +426,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,6 +491,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -404,7 +541,7 @@
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -461,6 +598,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -488,9 +632,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -528,7 +672,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -634,7 +778,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -776,7 +920,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -784,17 +928,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899747DD-F910-4726-A4E6-BD4C9A6B746C}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="7" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
@@ -829,296 +975,272 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D5" s="16">
-        <v>23351</v>
+        <v>3497</v>
       </c>
       <c r="E5" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="F5" s="13">
-        <v>26771</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="16">
-        <v>20252</v>
-      </c>
-      <c r="E6" s="10">
-        <v>7.2999999999999995E-2</v>
+        <v>44014</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="24" t="s">
+        <v>78</v>
       </c>
       <c r="F6" s="13">
-        <v>29921</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <f>SUBTOTAL(9,F5:F5)</f>
+        <v>44014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="16">
+        <v>20252</v>
+      </c>
+      <c r="E7" s="10">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="F7" s="13">
+        <v>29921</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D8" s="16">
         <v>14440</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E8" s="10">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F8" s="13">
         <v>22759</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="16">
-        <v>13964</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="F8" s="13">
-        <v>30123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="16">
-        <v>11444</v>
+        <v>9750</v>
       </c>
       <c r="E9" s="10">
-        <v>4.1000000000000002E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F9" s="13">
-        <v>31606</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27789</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="16">
-        <v>9750</v>
+        <v>9512</v>
       </c>
       <c r="E10" s="10">
-        <v>3.5000000000000003E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="F10" s="13">
-        <v>27789</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>29121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D11" s="16">
-        <v>9512</v>
+        <v>3517</v>
       </c>
       <c r="E11" s="10">
-        <v>3.4000000000000002E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="F11" s="13">
-        <v>29121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="16">
-        <v>7866</v>
-      </c>
-      <c r="E12" s="10">
-        <v>2.8000000000000001E-2</v>
+        <v>35251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="24" t="s">
+        <v>79</v>
       </c>
       <c r="F12" s="13">
-        <v>31804</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <f>SUBTOTAL(9,F7:F11)</f>
+        <v>144841</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D13" s="16">
-        <v>7049</v>
+        <v>6211</v>
       </c>
       <c r="E13" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="F13" s="13">
-        <v>32256</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>25769</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D14" s="16">
-        <v>6211</v>
+        <v>4970</v>
       </c>
       <c r="E14" s="10">
-        <v>2.1999999999999999E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F14" s="13">
-        <v>25769</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="16">
+        <v>3036</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F15" s="13">
+        <v>56110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="13">
+        <f>SUBTOTAL(9,F13:F15)</f>
+        <v>104053</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="16">
-        <v>5433</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="F15" s="13">
-        <v>32656</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="16">
-        <v>5368</v>
-      </c>
-      <c r="E16" s="10">
-        <v>1.9E-2</v>
-      </c>
-      <c r="F16" s="13">
-        <v>33658</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D17" s="16">
-        <v>4970</v>
+        <v>11444</v>
       </c>
       <c r="E17" s="10">
-        <v>1.7999999999999999E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="F17" s="13">
-        <v>22174</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+        <v>31606</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D18" s="16">
-        <v>4392</v>
+        <v>5433</v>
       </c>
       <c r="E18" s="10">
-        <v>1.6E-2</v>
+        <v>0.02</v>
       </c>
       <c r="F18" s="13">
-        <v>38113</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+        <v>32656</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="16">
-        <v>4155</v>
+        <v>4392</v>
       </c>
       <c r="E19" s="10">
-        <v>1.4999999999999999E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F19" s="13">
-        <v>29560</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+        <v>38113</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="16">
-        <v>4076</v>
+        <v>4155</v>
       </c>
       <c r="E20" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F20" s="13">
+        <v>29560</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="16">
+        <v>4076</v>
+      </c>
+      <c r="E21" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F21" s="13">
         <v>45649</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="16">
-        <v>3973</v>
-      </c>
-      <c r="E21" s="10">
-        <v>1.4E-2</v>
-      </c>
-      <c r="F21" s="13">
-        <v>81296</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>17</v>
       </c>
@@ -1135,177 +1257,161 @@
         <v>35285</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D23" s="16">
-        <v>3735</v>
+        <v>3644</v>
       </c>
       <c r="E23" s="10">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="F23" s="13">
-        <v>60648</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+        <v>53110</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D24" s="16">
-        <v>3644</v>
+        <v>3150</v>
       </c>
       <c r="E24" s="10">
-        <v>1.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="F24" s="13">
-        <v>53110</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+        <v>29169</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D25" s="16">
-        <v>3579</v>
+        <v>3073</v>
       </c>
       <c r="E25" s="10">
-        <v>1.2999999999999999E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="F25" s="13">
-        <v>115920</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="16">
-        <v>3517</v>
-      </c>
-      <c r="E26" s="10">
-        <v>1.2999999999999999E-2</v>
+        <v>60055</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="24" t="s">
+        <v>81</v>
       </c>
       <c r="F26" s="13">
-        <v>35251</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+        <f>SUBTOTAL(9,F17:F25)</f>
+        <v>355203</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D27" s="16">
-        <v>3497</v>
+        <v>3735</v>
       </c>
       <c r="E27" s="10">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="F27" s="13">
-        <v>44014</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+        <v>60648</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="16">
+        <v>2937</v>
+      </c>
+      <c r="E28" s="10">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F28" s="13">
+        <v>53593</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="16">
+        <v>2500</v>
+      </c>
+      <c r="E29" s="10">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F29" s="13">
+        <v>43448</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="13">
+        <f>SUBTOTAL(9,F27:F29)</f>
+        <v>157689</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>21</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="16">
+        <v>7866</v>
+      </c>
+      <c r="E31" s="10">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F31" s="13">
+        <v>31804</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D32" s="16">
         <v>3474</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E32" s="10">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F32" s="13">
         <v>41825</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="16">
-        <v>3150</v>
-      </c>
-      <c r="E29" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="F29" s="13">
-        <v>29169</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="16">
-        <v>3073</v>
-      </c>
-      <c r="E30" s="10">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="F30" s="13">
-        <v>60055</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="16">
-        <v>3036</v>
-      </c>
-      <c r="E31" s="10">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="F31" s="13">
-        <v>56110</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="16">
-        <v>2937</v>
-      </c>
-      <c r="E32" s="10">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="F32" s="13">
-        <v>53593</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>21</v>
       </c>
@@ -1322,24 +1428,148 @@
         <v>32222</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="16">
-        <v>2500</v>
-      </c>
-      <c r="E34" s="10">
-        <v>8.9999999999999993E-3</v>
+    <row r="34" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="24" t="s">
+        <v>83</v>
       </c>
       <c r="F34" s="13">
-        <v>43448</v>
+        <f>SUBTOTAL(9,F31:F33)</f>
+        <v>105851</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="16">
+        <v>3973</v>
+      </c>
+      <c r="E35" s="10">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F35" s="13">
+        <v>81296</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="16">
+        <v>3579</v>
+      </c>
+      <c r="E36" s="10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F36" s="13">
+        <v>115920</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" s="13">
+        <f>SUBTOTAL(9,F35:F36)</f>
+        <v>197216</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="16">
+        <v>23351</v>
+      </c>
+      <c r="E38" s="10">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="F38" s="13">
+        <v>26771</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="16">
+        <v>13964</v>
+      </c>
+      <c r="E39" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="F39" s="13">
+        <v>30123</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="16">
+        <v>7049</v>
+      </c>
+      <c r="E40" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F40" s="13">
+        <v>32256</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="16">
+        <v>5368</v>
+      </c>
+      <c r="E41" s="10">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F41" s="13">
+        <v>33658</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" s="13">
+        <f>SUBTOTAL(9,F38:F41)</f>
+        <v>122808</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F43" s="13">
+        <f>SUBTOTAL(9,F5:F41)</f>
+        <v>1231675</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:F41">
+    <sortCondition ref="B5:B41"/>
+  </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1348,13 +1578,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA896E1-B544-40F0-8D20-CE40D0541236}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="D13" sqref="B4:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.77734375" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
@@ -1394,111 +1624,109 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B5" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D5" s="22">
-        <v>595</v>
+        <v>905</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B6" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D6" s="22">
-        <v>620</v>
+        <v>381</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B7" s="21" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D7" s="22">
-        <v>905</v>
+        <v>320</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B8" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D8" s="22">
-        <v>442</v>
+        <v>955</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>58</v>
-      </c>
+    <row r="9" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="21"/>
       <c r="D9" s="22">
-        <v>524</v>
+        <f>SUBTOTAL(9,D5:D8)</f>
+        <v>2561</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B10" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D10" s="22">
-        <v>830</v>
+        <v>595</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B11" s="21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D11" s="22">
-        <v>971</v>
+        <v>345</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>66</v>
-      </c>
+    <row r="12" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="21"/>
       <c r="D12" s="22">
-        <v>381</v>
+        <f>SUBTOTAL(9,D10:D11)</f>
+        <v>940</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>54</v>
       </c>
@@ -1511,116 +1739,167 @@
       <c r="E13"/>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>58</v>
-      </c>
+    <row r="14" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="21"/>
       <c r="D14" s="22">
-        <v>345</v>
+        <f>SUBTOTAL(9,D13:D13)</f>
+        <v>672</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B15" s="21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D15" s="22">
-        <v>865</v>
+        <v>971</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>63</v>
-      </c>
+    <row r="16" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="21"/>
       <c r="D16" s="22">
-        <v>255</v>
+        <f>SUBTOTAL(9,D15:D15)</f>
+        <v>971</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B17" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D17" s="22">
-        <v>320</v>
+        <v>620</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B18" s="21" t="s">
         <v>53</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D18" s="22">
-        <v>931</v>
+        <v>442</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B19" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D19" s="22">
-        <v>955</v>
+        <v>830</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D20"/>
+    <row r="20" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B20" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="22">
+        <v>865</v>
+      </c>
       <c r="E20"/>
       <c r="F20"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D21"/>
+    <row r="21" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B21" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="22">
+        <v>255</v>
+      </c>
       <c r="E21"/>
       <c r="F21"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D22"/>
+    <row r="22" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B22" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="22">
+        <v>931</v>
+      </c>
       <c r="E22"/>
       <c r="F22"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D23"/>
+    <row r="23" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22">
+        <f>SUBTOTAL(9,D17:D22)</f>
+        <v>3943</v>
+      </c>
       <c r="E23"/>
       <c r="F23"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D24"/>
+    <row r="24" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B24" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="22">
+        <v>524</v>
+      </c>
       <c r="E24"/>
       <c r="F24"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D25"/>
+    <row r="25" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22">
+        <f>SUBTOTAL(9,D24:D24)</f>
+        <v>524</v>
+      </c>
       <c r="E25"/>
       <c r="F25"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D26"/>
+      <c r="B26" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22">
+        <f>SUBTOTAL(9,D5:D24)</f>
+        <v>9611</v>
+      </c>
       <c r="E26"/>
       <c r="F26"/>
     </row>
@@ -1654,9 +1933,55 @@
       <c r="E32"/>
       <c r="F32"/>
     </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:D24">
+    <sortCondition ref="B5:B24"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1664,13 +1989,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E3C134-BBB5-4C4A-AA3C-C10A1E93C857}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="C10" sqref="B4:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
@@ -1710,111 +2035,109 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B5" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D5" s="22">
-        <v>595</v>
+        <v>905</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B6" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D6" s="22">
-        <v>620</v>
+        <v>381</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B7" s="21" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D7" s="22">
-        <v>905</v>
+        <v>320</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B8" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D8" s="22">
-        <v>442</v>
+        <v>955</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>58</v>
-      </c>
+    <row r="9" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="21"/>
       <c r="D9" s="22">
-        <v>524</v>
+        <f>SUBTOTAL(1,D5:D8)</f>
+        <v>640.25</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B10" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D10" s="22">
-        <v>830</v>
+        <v>595</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B11" s="21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D11" s="22">
-        <v>971</v>
+        <v>345</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>66</v>
-      </c>
+    <row r="12" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="21"/>
       <c r="D12" s="22">
-        <v>381</v>
+        <f>SUBTOTAL(1,D10:D11)</f>
+        <v>470</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>54</v>
       </c>
@@ -1827,116 +2150,167 @@
       <c r="E13"/>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>58</v>
-      </c>
+    <row r="14" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="21"/>
       <c r="D14" s="22">
-        <v>345</v>
+        <f>SUBTOTAL(1,D13:D13)</f>
+        <v>672</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B15" s="21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D15" s="22">
-        <v>865</v>
+        <v>971</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>63</v>
-      </c>
+    <row r="16" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="21"/>
       <c r="D16" s="22">
-        <v>255</v>
+        <f>SUBTOTAL(1,D15:D15)</f>
+        <v>971</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B17" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D17" s="22">
-        <v>320</v>
+        <v>620</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B18" s="21" t="s">
         <v>53</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D18" s="22">
-        <v>931</v>
+        <v>442</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B19" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D19" s="22">
-        <v>955</v>
+        <v>830</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D20"/>
+    <row r="20" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B20" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="22">
+        <v>865</v>
+      </c>
       <c r="E20"/>
       <c r="F20"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D21"/>
+    <row r="21" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B21" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="22">
+        <v>255</v>
+      </c>
       <c r="E21"/>
       <c r="F21"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D22"/>
+    <row r="22" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B22" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="22">
+        <v>931</v>
+      </c>
       <c r="E22"/>
       <c r="F22"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D23"/>
+    <row r="23" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22">
+        <f>SUBTOTAL(1,D17:D22)</f>
+        <v>657.16666666666663</v>
+      </c>
       <c r="E23"/>
       <c r="F23"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D24"/>
+    <row r="24" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B24" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="22">
+        <v>524</v>
+      </c>
       <c r="E24"/>
       <c r="F24"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D25"/>
+    <row r="25" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22">
+        <f>SUBTOTAL(1,D24:D24)</f>
+        <v>524</v>
+      </c>
       <c r="E25"/>
       <c r="F25"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D26"/>
+      <c r="B26" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22">
+        <f>SUBTOTAL(1,D5:D24)</f>
+        <v>640.73333333333335</v>
+      </c>
       <c r="E26"/>
       <c r="F26"/>
     </row>
@@ -1970,9 +2344,55 @@
       <c r="E32"/>
       <c r="F32"/>
     </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:D24">
+    <sortCondition ref="B5:B24"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1980,13 +2400,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5CF5C0-3C09-434A-9A31-3BE9921DAA3D}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="D13" sqref="B4:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
@@ -2026,111 +2446,109 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B5" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D5" s="22">
-        <v>595</v>
+        <v>905</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B6" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D6" s="22">
-        <v>620</v>
+        <v>381</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B7" s="21" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D7" s="22">
-        <v>905</v>
+        <v>320</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B8" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D8" s="22">
-        <v>442</v>
+        <v>955</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>58</v>
-      </c>
+    <row r="9" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="21"/>
       <c r="D9" s="22">
-        <v>524</v>
+        <f>SUBTOTAL(4,D5:D8)</f>
+        <v>955</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B10" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D10" s="22">
-        <v>830</v>
+        <v>595</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B11" s="21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D11" s="22">
-        <v>971</v>
+        <v>345</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>66</v>
-      </c>
+    <row r="12" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="21"/>
       <c r="D12" s="22">
-        <v>381</v>
+        <f>SUBTOTAL(4,D10:D11)</f>
+        <v>595</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>54</v>
       </c>
@@ -2143,116 +2561,167 @@
       <c r="E13"/>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>58</v>
-      </c>
+    <row r="14" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="21"/>
       <c r="D14" s="22">
-        <v>345</v>
+        <f>SUBTOTAL(4,D13:D13)</f>
+        <v>672</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B15" s="21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D15" s="22">
-        <v>865</v>
+        <v>971</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>63</v>
-      </c>
+    <row r="16" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="21"/>
       <c r="D16" s="22">
-        <v>255</v>
+        <f>SUBTOTAL(4,D15:D15)</f>
+        <v>971</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B17" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D17" s="22">
-        <v>320</v>
+        <v>620</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B18" s="21" t="s">
         <v>53</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D18" s="22">
-        <v>931</v>
+        <v>442</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B19" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D19" s="22">
-        <v>955</v>
+        <v>830</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D20"/>
+    <row r="20" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B20" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="22">
+        <v>865</v>
+      </c>
       <c r="E20"/>
       <c r="F20"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D21"/>
+    <row r="21" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B21" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="22">
+        <v>255</v>
+      </c>
       <c r="E21"/>
       <c r="F21"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D22"/>
+    <row r="22" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B22" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="22">
+        <v>931</v>
+      </c>
       <c r="E22"/>
       <c r="F22"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D23"/>
+    <row r="23" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22">
+        <f>SUBTOTAL(4,D17:D22)</f>
+        <v>931</v>
+      </c>
       <c r="E23"/>
       <c r="F23"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D24"/>
+    <row r="24" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B24" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="22">
+        <v>524</v>
+      </c>
       <c r="E24"/>
       <c r="F24"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D25"/>
+    <row r="25" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22">
+        <f>SUBTOTAL(4,D24:D24)</f>
+        <v>524</v>
+      </c>
       <c r="E25"/>
       <c r="F25"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D26"/>
+      <c r="B26" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22">
+        <f>SUBTOTAL(4,D5:D24)</f>
+        <v>971</v>
+      </c>
       <c r="E26"/>
       <c r="F26"/>
     </row>
@@ -2286,9 +2755,55 @@
       <c r="E32"/>
       <c r="F32"/>
     </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:D24">
+    <sortCondition ref="B5:B24"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2296,13 +2811,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFB9F9B-D4DC-415B-8B7F-9FE4B0165679}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="C5" sqref="B4:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
@@ -2342,111 +2857,109 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B5" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D5" s="22">
-        <v>595</v>
+        <v>905</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B6" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D6" s="22">
-        <v>620</v>
+        <v>381</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B7" s="21" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D7" s="22">
-        <v>905</v>
+        <v>320</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B8" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D8" s="22">
-        <v>442</v>
+        <v>955</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>58</v>
-      </c>
+    <row r="9" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="21"/>
       <c r="D9" s="22">
-        <v>524</v>
+        <f>SUBTOTAL(5,D5:D8)</f>
+        <v>320</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B10" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D10" s="22">
-        <v>830</v>
+        <v>595</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B11" s="21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D11" s="22">
-        <v>971</v>
+        <v>345</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>66</v>
-      </c>
+    <row r="12" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="21"/>
       <c r="D12" s="22">
-        <v>381</v>
+        <f>SUBTOTAL(5,D10:D11)</f>
+        <v>345</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>54</v>
       </c>
@@ -2459,116 +2972,167 @@
       <c r="E13"/>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>58</v>
-      </c>
+    <row r="14" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="21"/>
       <c r="D14" s="22">
-        <v>345</v>
+        <f>SUBTOTAL(5,D13:D13)</f>
+        <v>672</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B15" s="21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D15" s="22">
-        <v>865</v>
+        <v>971</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>63</v>
-      </c>
+    <row r="16" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="21"/>
       <c r="D16" s="22">
-        <v>255</v>
+        <f>SUBTOTAL(5,D15:D15)</f>
+        <v>971</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B17" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D17" s="22">
-        <v>320</v>
+        <v>620</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B18" s="21" t="s">
         <v>53</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D18" s="22">
-        <v>931</v>
+        <v>442</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B19" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D19" s="22">
-        <v>955</v>
+        <v>830</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D20"/>
+    <row r="20" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B20" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="22">
+        <v>865</v>
+      </c>
       <c r="E20"/>
       <c r="F20"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D21"/>
+    <row r="21" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B21" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="22">
+        <v>255</v>
+      </c>
       <c r="E21"/>
       <c r="F21"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D22"/>
+    <row r="22" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B22" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="22">
+        <v>931</v>
+      </c>
       <c r="E22"/>
       <c r="F22"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D23"/>
+    <row r="23" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22">
+        <f>SUBTOTAL(5,D17:D22)</f>
+        <v>255</v>
+      </c>
       <c r="E23"/>
       <c r="F23"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D24"/>
+    <row r="24" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B24" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="22">
+        <v>524</v>
+      </c>
       <c r="E24"/>
       <c r="F24"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D25"/>
+    <row r="25" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22">
+        <f>SUBTOTAL(5,D24:D24)</f>
+        <v>524</v>
+      </c>
       <c r="E25"/>
       <c r="F25"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D26"/>
+      <c r="B26" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22">
+        <f>SUBTOTAL(5,D5:D24)</f>
+        <v>255</v>
+      </c>
       <c r="E26"/>
       <c r="F26"/>
     </row>
@@ -2602,9 +3166,55 @@
       <c r="E32"/>
       <c r="F32"/>
     </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:D24">
+    <sortCondition ref="B5:B24"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2612,13 +3222,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5897CB6D-37F3-4795-A7AC-EECB20C96532}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
@@ -2658,111 +3268,109 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B5" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D5" s="22">
-        <v>595</v>
+        <v>905</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B6" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D6" s="22">
-        <v>620</v>
+        <v>381</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B7" s="21" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D7" s="22">
-        <v>905</v>
+        <v>320</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B8" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D8" s="22">
-        <v>442</v>
+        <v>955</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="22">
-        <v>524</v>
+    <row r="9" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="26">
+        <f>SUBTOTAL(3,D5:D8)</f>
+        <v>4</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B10" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D10" s="22">
-        <v>830</v>
+        <v>595</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B11" s="21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D11" s="22">
-        <v>971</v>
+        <v>345</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="22">
-        <v>381</v>
+    <row r="12" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="26">
+        <f>SUBTOTAL(3,D10:D11)</f>
+        <v>2</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>54</v>
       </c>
@@ -2775,116 +3383,167 @@
       <c r="E13"/>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="22">
-        <v>345</v>
+    <row r="14" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="26">
+        <f>SUBTOTAL(3,D13:D13)</f>
+        <v>1</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B15" s="21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D15" s="22">
-        <v>865</v>
+        <v>971</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="22">
-        <v>255</v>
+    <row r="16" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="26">
+        <f>SUBTOTAL(3,D15:D15)</f>
+        <v>1</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B17" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D17" s="22">
-        <v>320</v>
+        <v>620</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B18" s="21" t="s">
         <v>53</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D18" s="22">
-        <v>931</v>
+        <v>442</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B19" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D19" s="22">
-        <v>955</v>
+        <v>830</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D20"/>
+    <row r="20" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B20" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="22">
+        <v>865</v>
+      </c>
       <c r="E20"/>
       <c r="F20"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D21"/>
+    <row r="21" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B21" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="22">
+        <v>255</v>
+      </c>
       <c r="E21"/>
       <c r="F21"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D22"/>
+    <row r="22" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B22" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="22">
+        <v>931</v>
+      </c>
       <c r="E22"/>
       <c r="F22"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D23"/>
+    <row r="23" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="26">
+        <f>SUBTOTAL(3,D17:D22)</f>
+        <v>6</v>
+      </c>
       <c r="E23"/>
       <c r="F23"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D24"/>
+    <row r="24" spans="2:6" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="B24" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="22">
+        <v>524</v>
+      </c>
       <c r="E24"/>
       <c r="F24"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D25"/>
+    <row r="25" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="26">
+        <f>SUBTOTAL(3,D24:D24)</f>
+        <v>1</v>
+      </c>
       <c r="E25"/>
       <c r="F25"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D26"/>
+      <c r="B26" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="26">
+        <f>SUBTOTAL(3,D5:D24)</f>
+        <v>15</v>
+      </c>
       <c r="E26"/>
       <c r="F26"/>
     </row>
@@ -2918,9 +3577,55 @@
       <c r="E32"/>
       <c r="F32"/>
     </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:D24">
+    <sortCondition ref="B5:B24"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
